--- a/VTiger/Data/Book1.xlsx
+++ b/VTiger/Data/Book1.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
+    <sheet name="test" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Tc_Id</t>
   </si>
@@ -34,11 +35,15 @@
   <si>
     <t>Test_Yantra</t>
   </si>
+  <si>
+    <t>driver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +397,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,4 +419,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>